--- a/templates/UoG_SchemaTemplate_Latest.xlsx
+++ b/templates/UoG_SchemaTemplate_Latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huitemac\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofwaterloo-my.sharepoint.com/personal/x444xu_uwaterloo_ca/Documents/_Private/Code/GitHub Repositories/OCA_training_pathway/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBCC334-FE8E-4F54-B235-6549667818C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{4DBCC334-FE8E-4F54-B235-6549667818C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20EA7347-8A27-46A0-8FF4-1A80CE4D55CD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="6" r:id="rId1"/>
@@ -38,8 +38,254 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Xingjian Xu</author>
+  </authors>
+  <commentList>
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{9D95EE39-ECC0-4FDC-9C40-05E3A15B8254}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Any integer or decimal number</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{F1687463-D2D6-4DFD-97AC-3928BC77AE49}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Any number of letters, digits, or underscores</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K19" authorId="0" shapeId="0" xr:uid="{32DE1FCD-1791-491A-9162-7370B477ABBA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Any integer or decimal number</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M19" authorId="0" shapeId="0" xr:uid="{CD6CAB05-8262-419A-99BA-E4ECF5740A05}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Any number of letters, digits, or underscores</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{6560A794-9781-43B1-B5CB-1A04084FDE8B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Any integer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{81AA76CC-10F5-4111-86C5-5B96D340BE61}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Exactly 10 letters, digits, or underscores</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{1F4A7E2A-3025-4258-8313-211445BEF72A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Any integer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{909E0750-8265-4C88-A9CC-C42020CB0D66}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Exactly 10 letters, digits, or underscores</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{90C074D5-391E-4B80-A785-71CA26F5C64A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Non-negative integer or decimal number</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{542E9281-BEE3-4407-958A-82B090931F1E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Contains DOIs
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K21" authorId="0" shapeId="0" xr:uid="{1A670831-C22C-49DA-91A0-688B78F629C7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Non-negative integer or decimal number</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M21" authorId="0" shapeId="0" xr:uid="{1772103C-F205-4197-BFFF-25911B43D415}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Contains DOIs
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{2718139B-C913-45F9-8898-68D598CF7BE3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Non-negative integer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{74AEF855-D45A-45CC-9465-00E8469CA5F8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Contains ORCIDs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{3C140A0E-D59D-4308-868A-D3150E0128D3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Non-negative integer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M22" authorId="0" shapeId="0" xr:uid="{511B4B54-1CD8-421A-86F6-A85BB5C52C9A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Contains ORCIDs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{4E30202C-145D-46BA-8D39-2A92CD283A2D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Contains ROR IDs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M23" authorId="0" shapeId="0" xr:uid="{8F1FCCCA-CE4F-4BCD-B6A0-EA6207A88F12}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Contains ROR IDs</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
   <si>
     <t>OCA DATA CAPTURE SPECIFICATION</t>
   </si>
@@ -926,9 +1172,6 @@
     <t>PnYnMnD</t>
   </si>
   <si>
-    <t>Epoch</t>
-  </si>
-  <si>
     <r>
       <t>Notes:</t>
     </r>
@@ -998,9 +1241,6 @@
   </si>
   <si>
     <t>OL-EN: Saisie</t>
-  </si>
-  <si>
-    <t>[^]*</t>
   </si>
   <si>
     <r>
@@ -1145,15 +1385,29 @@
   <si>
     <t>^[A-Za-z0-9_]{10}$</t>
   </si>
+  <si>
+    <t>(\d{4}-){3}\d{3}[0-9X]</t>
+  </si>
+  <si>
+    <t>10\.([0-9]+\.*)+[/](([^\s\.])+\.*)+</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>0[a-hj-km-np-tv-z|0-9]{6}[0-9]{2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1279,7 +1533,7 @@
       <b/>
       <sz val="15"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1297,6 +1551,24 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1976,7 +2248,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1985,52 +2256,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2048,6 +2277,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2082,6 +2314,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{E39FFF22-341C-0C46-B5CC-85307D7C8AE0}"/>
@@ -2089,31 +2363,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Helvetica Neue"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFECECEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Helvetica Neue"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFECECEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="49">
     <dxf>
       <font>
         <b val="0"/>
@@ -2151,6 +2401,218 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <name val="Helvetica Neue"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFECECEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF16E7CF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFECECEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF16E7CF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBE4D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF16E7CF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFECECEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF16E7CF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBE4D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF16E7CF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFECECEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF16E7CF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBE4D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF16E7CF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBE4D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF16E7CF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFECECEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF16E7CF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBE4D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF16E7CF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFECECEC"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2630,488 +3092,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFECECEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFECECEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFECECEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFECECEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFECECEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFECECEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFECECEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFECECEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFECECEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFECECEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFECECEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF16E7CF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Helvetica Neue"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFECECEC"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3203,8 +3183,8 @@
       <xdr:rowOff>41140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6245225</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>138</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>487136</xdr:rowOff>
     </xdr:to>
@@ -3246,8 +3226,8 @@
       <xdr:rowOff>218940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6245120</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>23202</xdr:rowOff>
     </xdr:to>
@@ -3341,8 +3321,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8287673-FFFD-4345-8514-5EC2657324FC}" name="Boolean" displayName="Boolean" ref="B18:B19" insertRow="1" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8287673-FFFD-4345-8514-5EC2657324FC}" name="Boolean" displayName="Boolean" ref="B18:B19" insertRow="1" totalsRowShown="0" headerRowDxfId="48">
   <autoFilter ref="B18:B19" xr:uid="{0488F883-1837-4C5F-BD5B-321B6EF8A400}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{A83C3427-2058-4ACA-9AB5-5E0A7998007A}" name="Boolean"/>
@@ -3352,7 +3336,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3BB98DBF-F21C-4EA7-A490-E7FBE1EAAC47}" name="Array_Numeric" displayName="Array_Numeric" ref="K18:K22" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3BB98DBF-F21C-4EA7-A490-E7FBE1EAAC47}" name="Array_Numeric" displayName="Array_Numeric" ref="K18:K22" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="K18:K22" xr:uid="{E5E08401-82FB-4766-A7FC-F1BCDD71E26F}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{C1F54B45-0FCB-4260-A5C7-8061A8AD750D}" name="Array_Numeric"/>
@@ -3362,47 +3346,47 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3F9ED390-A06F-4A65-9380-FC3D3BA4C553}" name="Array_Reference" displayName="Array_Reference" ref="L18:L19" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3F9ED390-A06F-4A65-9380-FC3D3BA4C553}" name="Array_Reference" displayName="Array_Reference" ref="L18:L19" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="L18:L19" xr:uid="{B1097781-F5C6-4443-8BC6-E9CBC7E49806}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DCDC02F4-AECB-462B-81D4-567A563AF71F}" name="Array_Reference" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{DCDC02F4-AECB-462B-81D4-567A563AF71F}" name="Array_Reference" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D8A84541-247C-452D-BAA8-6A926BD995A1}" name="Array_Text" displayName="Array_Text" ref="M18:M20" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="M18:M20" xr:uid="{228F31D4-C428-401B-8D7F-043C57512E36}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D8A84541-247C-452D-BAA8-6A926BD995A1}" name="Array_Text" displayName="Array_Text" ref="M18:M23" totalsRowShown="0" headerRowDxfId="23" dataDxfId="0">
+  <autoFilter ref="M18:M23" xr:uid="{228F31D4-C428-401B-8D7F-043C57512E36}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{CCC4C439-427D-46F3-9100-CFAA00D28921}" name="Array_Text" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CCC4C439-427D-46F3-9100-CFAA00D28921}" name="Array_Text" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{58DA073A-8266-4635-8D6B-083E9ADD0228}" name="Binary" displayName="Binary" ref="C18:C22" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{58DA073A-8266-4635-8D6B-083E9ADD0228}" name="Binary" displayName="Binary" ref="C18:C22" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="C18:C22" xr:uid="{6C611341-394F-4FED-916D-FB04546E168F}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B31147F2-F58A-4EEE-9FA4-65FEFBEBDFF2}" name="Binary" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{B31147F2-F58A-4EEE-9FA4-65FEFBEBDFF2}" name="Binary" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{147E60B5-5198-4A7D-BB90-5F4F2CBF82DE}" name="DateTime" displayName="DateTime" ref="D18:D23" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="D18:D23" xr:uid="{2A4A6C58-0C7D-4FB2-A1BB-1F7513AC1257}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{147E60B5-5198-4A7D-BB90-5F4F2CBF82DE}" name="DateTime" displayName="DateTime" ref="D18:D22" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="D18:D22" xr:uid="{2A4A6C58-0C7D-4FB2-A1BB-1F7513AC1257}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{577554C6-9752-4248-9C68-D9BF2DB5120F}" name="DateTime" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{577554C6-9752-4248-9C68-D9BF2DB5120F}" name="DateTime" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2AAC68F8-42CA-44D8-8500-6C84D85E1F0E}" name="Numeric" displayName="Numeric" ref="E18:E22" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2AAC68F8-42CA-44D8-8500-6C84D85E1F0E}" name="Numeric" displayName="Numeric" ref="E18:E22" totalsRowShown="0" headerRowDxfId="41">
   <autoFilter ref="E18:E22" xr:uid="{187FB044-A10A-47ED-A31C-4BF5CCE31976}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{A7D4EF96-51AE-4A04-8B1C-1D083A37C510}" name="Numeric"/>
@@ -3412,27 +3396,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{920967C5-5715-4F94-ADA6-0A2E8181D44E}" name="Reference" displayName="Reference" ref="F18:F19" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{920967C5-5715-4F94-ADA6-0A2E8181D44E}" name="Reference" displayName="Reference" ref="F18:F19" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="F18:F19" xr:uid="{7266B885-CDB2-4B1F-B5AC-BEA36C42729F}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{BBC6E43E-4C43-48CC-853D-A392AF3A585B}" name="Reference" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{BBC6E43E-4C43-48CC-853D-A392AF3A585B}" name="Reference" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DF149C6D-3535-49FA-B1AC-B67247EC7CE8}" name="Text" displayName="Text" ref="G18:G20" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="G18:G20" xr:uid="{F4F72189-8A08-4212-91D2-20C372088D9C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DF149C6D-3535-49FA-B1AC-B67247EC7CE8}" name="Text" displayName="Text" ref="G18:G23" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="G18:G23" xr:uid="{F4F72189-8A08-4212-91D2-20C372088D9C}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{187F220F-D7EC-42FB-B9CE-84EB900604B5}" name="Text" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{187F220F-D7EC-42FB-B9CE-84EB900604B5}" name="Text" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2AB42650-889D-4878-9168-BF23D21AEA86}" name="Array_Boolean" displayName="Array_Boolean" ref="H18:H19" insertRow="1" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2AB42650-889D-4878-9168-BF23D21AEA86}" name="Array_Boolean" displayName="Array_Boolean" ref="H18:H19" insertRow="1" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="H18:H19" xr:uid="{F5E557A1-62C8-4B82-9903-10E693098C44}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{F83F4815-C43D-478A-B6ED-A1AF01FD78F1}" name="Array_Boolean"/>
@@ -3442,20 +3426,20 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5A3AFD66-EC22-4933-8614-D2563C2C2720}" name="Array_Binary" displayName="Array_Binary" ref="I18:I22" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5A3AFD66-EC22-4933-8614-D2563C2C2720}" name="Array_Binary" displayName="Array_Binary" ref="I18:I22" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="I18:I22" xr:uid="{803DBDF2-73D3-47F0-95B9-5C00029D6F9F}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B52AF6C1-A9B4-4816-846E-554CD86729EB}" name="Array_Binary" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{B52AF6C1-A9B4-4816-846E-554CD86729EB}" name="Array_Binary" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FD75AC64-5E9B-46F5-A302-F238241D6063}" name="Array_DateTime" displayName="Array_DateTime" ref="J18:J23" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="J18:J23" xr:uid="{4E09D278-1581-48A1-977F-6CE3579BD550}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FD75AC64-5E9B-46F5-A302-F238241D6063}" name="Array_DateTime" displayName="Array_DateTime" ref="J18:J22" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="J18:J22" xr:uid="{4E09D278-1581-48A1-977F-6CE3579BD550}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8249B6D3-D0C1-43E2-AB97-49FA3F9BD8E1}" name="Array_DateTime" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{8249B6D3-D0C1-43E2-AB97-49FA3F9BD8E1}" name="Array_DateTime" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3757,132 +3741,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372B2856-C396-384A-9B71-4CF0041419AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372B2856-C396-384A-9B71-4CF0041419AC}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
-    <col min="2" max="2" width="46.7265625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="93.7265625" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" customWidth="1"/>
-    <col min="7" max="7" width="21.453125" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" customWidth="1"/>
-    <col min="9" max="9" width="21.7265625" customWidth="1"/>
-    <col min="10" max="10" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.26953125" customWidth="1"/>
-    <col min="12" max="13" width="21.7265625" customWidth="1"/>
+    <col min="4" max="4" width="93.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1"/>
+    <col min="12" max="13" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="19.5">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-    </row>
-    <row r="2" spans="2:4" ht="35.15" customHeight="1">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-    </row>
-    <row r="3" spans="2:4" ht="40" customHeight="1">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+    </row>
+    <row r="2" spans="2:4" ht="35.1" customHeight="1">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+    </row>
+    <row r="3" spans="2:4" ht="39.950000000000003" customHeight="1">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
     </row>
     <row r="4" spans="2:4" ht="18" customHeight="1">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
     </row>
     <row r="5" spans="2:4" ht="19.5">
-      <c r="B5" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
+      <c r="B5" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
     </row>
     <row r="6" spans="2:4" ht="15" customHeight="1">
       <c r="B6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="94" t="str">
+        <f>IF(ISBLANK(en!$B4),"",en!$B4)</f>
+        <v/>
+      </c>
+      <c r="D6" s="95"/>
+    </row>
+    <row r="7" spans="2:4" ht="15.95" customHeight="1">
+      <c r="B7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="77" t="str">
-        <f>IF(ISBLANK(en!$B4),"",en!$B4)</f>
-        <v/>
-      </c>
-      <c r="D6" s="78"/>
-    </row>
-    <row r="7" spans="2:4" ht="16" customHeight="1">
-      <c r="B7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="71" t="str">
+      <c r="C7" s="89" t="str">
         <f>IF(ISBLANK(en!$B5),"",en!$B5)</f>
         <v/>
       </c>
-      <c r="D7" s="72"/>
-    </row>
-    <row r="8" spans="2:4" ht="16" customHeight="1">
+      <c r="D7" s="90"/>
+    </row>
+    <row r="8" spans="2:4" ht="15.95" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="38"/>
       <c r="D8" s="39"/>
     </row>
-    <row r="9" spans="2:4" ht="16" customHeight="1">
+    <row r="9" spans="2:4" ht="15.95" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="39"/>
     </row>
-    <row r="10" spans="2:4" ht="14.5">
+    <row r="10" spans="2:4" ht="15">
       <c r="B10" s="2"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72"/>
-    </row>
-    <row r="11" spans="2:4" ht="14.5">
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
+    </row>
+    <row r="11" spans="2:4" ht="15">
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="72"/>
-    </row>
-    <row r="12" spans="2:4" ht="14.5">
+      <c r="D11" s="90"/>
+    </row>
+    <row r="12" spans="2:4" ht="15">
       <c r="B12" s="2"/>
       <c r="C12" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="39"/>
     </row>
-    <row r="13" spans="2:4" ht="14.5">
+    <row r="13" spans="2:4" ht="15">
       <c r="B13" s="2"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
-    </row>
-    <row r="14" spans="2:4" ht="14.5">
+      <c r="C13" s="89"/>
+      <c r="D13" s="90"/>
+    </row>
+    <row r="14" spans="2:4" ht="15">
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-    </row>
-    <row r="15" spans="2:4" ht="14.5">
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+    </row>
+    <row r="15" spans="2:4" ht="15">
       <c r="B15" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="42"/>
@@ -3891,63 +3875,61 @@
     </row>
     <row r="17" spans="2:13" ht="19.5">
       <c r="B17" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="60" t="s">
+      <c r="G18" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="61" t="s">
+      <c r="H18" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="61" t="s">
+      <c r="J18" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="61" t="s">
+      <c r="K18" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="61" t="s">
+      <c r="L18" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="L18" s="60" t="s">
+      <c r="M18" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="59" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="58"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="16" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="65" t="s">
-        <v>113</v>
+      <c r="E19" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="62"/>
+      <c r="G19" s="64" t="s">
+        <v>111</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>72</v>
@@ -3955,29 +3937,27 @@
       <c r="J19" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K19" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="M19" s="66" t="s">
-        <v>113</v>
+      <c r="K19" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="62"/>
+      <c r="M19" s="64" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="58"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="16" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="65" t="s">
-        <v>114</v>
+      <c r="E20" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>112</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>73</v>
@@ -3985,11 +3965,11 @@
       <c r="J20" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="M20" s="66" t="s">
-        <v>114</v>
+      <c r="K20" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="M20" s="64" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="2:13">
@@ -4000,20 +3980,24 @@
       <c r="D21" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" s="16"/>
+      <c r="E21" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="62" t="s">
+        <v>114</v>
+      </c>
       <c r="I21" s="16" t="s">
         <v>74</v>
       </c>
       <c r="J21" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="K21" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="M21" s="57"/>
+      <c r="K21" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21" s="62" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="56"/>
@@ -4023,8 +4007,11 @@
       <c r="D22" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="64" t="s">
-        <v>111</v>
+      <c r="E22" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="65" t="s">
+        <v>113</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>75</v>
@@ -4032,27 +4019,31 @@
       <c r="J22" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="K22" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="M22" s="55"/>
+      <c r="K22" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="M22" s="65" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="56"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="16" t="s">
-        <v>80</v>
+      <c r="D23" s="16"/>
+      <c r="G23" s="62" t="s">
+        <v>115</v>
       </c>
       <c r="I23" s="16"/>
-      <c r="J23" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M23" s="55"/>
+      <c r="J23" s="16"/>
+      <c r="M23" s="62" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="56"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
+      <c r="G24" s="62"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="M24" s="55"/>
@@ -4061,6 +4052,9 @@
       <c r="B25" s="56"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
+      <c r="G25" s="66" t="s">
+        <v>116</v>
+      </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="M25" s="55"/>
@@ -4139,25 +4133,25 @@
       <c r="D34" s="16"/>
     </row>
     <row r="35" spans="2:13" ht="19.5">
-      <c r="B35" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-    </row>
-    <row r="36" spans="2:13" ht="86.15" customHeight="1">
-      <c r="B36" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="89"/>
-      <c r="D36" s="90"/>
-    </row>
-    <row r="37" spans="2:13" ht="14.5">
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-    </row>
-    <row r="38" spans="2:13" ht="29">
+      <c r="B35" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+    </row>
+    <row r="36" spans="2:13" ht="86.1" customHeight="1">
+      <c r="B36" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="75"/>
+      <c r="D36" s="76"/>
+    </row>
+    <row r="37" spans="2:13" ht="15">
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+    </row>
+    <row r="38" spans="2:13" ht="30">
       <c r="B38" s="20" t="s">
         <v>5</v>
       </c>
@@ -4168,8 +4162,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="2:13" ht="87">
-      <c r="B39" s="92" t="s">
+    <row r="39" spans="2:13" ht="90">
+      <c r="B39" s="78" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -4179,8 +4173,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="43.5">
-      <c r="B40" s="93"/>
+    <row r="40" spans="2:13" ht="45">
+      <c r="B40" s="79"/>
       <c r="C40" s="11" t="s">
         <v>31</v>
       </c>
@@ -4188,8 +4182,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="58">
-      <c r="B41" s="93"/>
+    <row r="41" spans="2:13" ht="60">
+      <c r="B41" s="79"/>
       <c r="C41" s="11" t="s">
         <v>32</v>
       </c>
@@ -4197,8 +4191,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:13" ht="58">
-      <c r="B42" s="94"/>
+    <row r="42" spans="2:13" ht="60">
+      <c r="B42" s="80"/>
       <c r="C42" s="11" t="s">
         <v>33</v>
       </c>
@@ -4206,7 +4200,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="72.5">
+    <row r="43" spans="2:13" ht="75">
       <c r="B43" s="35" t="s">
         <v>9</v>
       </c>
@@ -4217,7 +4211,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="29">
+    <row r="44" spans="2:13" ht="30">
       <c r="B44" s="34" t="s">
         <v>10</v>
       </c>
@@ -4228,7 +4222,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="29">
+    <row r="45" spans="2:13" ht="30">
       <c r="B45" s="34" t="s">
         <v>45</v>
       </c>
@@ -4239,7 +4233,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="14.5">
+    <row r="46" spans="2:13" ht="15">
       <c r="B46" s="35" t="s">
         <v>48</v>
       </c>
@@ -4250,7 +4244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="58">
+    <row r="47" spans="2:13" ht="60">
       <c r="B47" s="35" t="s">
         <v>50</v>
       </c>
@@ -4261,27 +4255,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="29">
-      <c r="B48" s="95" t="s">
+    <row r="48" spans="2:13" ht="45">
+      <c r="B48" s="81" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="30">
+      <c r="B49" s="81"/>
+      <c r="C49" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D49" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="14.5">
-      <c r="B49" s="95"/>
-      <c r="C49" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="43.5">
+    <row r="50" spans="2:4" ht="45">
       <c r="B50" s="35" t="s">
         <v>12</v>
       </c>
@@ -4292,7 +4286,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="29">
+    <row r="51" spans="2:4" ht="30">
       <c r="B51" s="35" t="s">
         <v>13</v>
       </c>
@@ -4303,7 +4297,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="29">
+    <row r="52" spans="2:4" ht="30">
       <c r="B52" s="35" t="s">
         <v>14</v>
       </c>
@@ -4314,8 +4308,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="14.5">
-      <c r="B53" s="95" t="s">
+    <row r="53" spans="2:4" ht="15">
+      <c r="B53" s="81" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="12"/>
@@ -4323,8 +4317,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="29">
-      <c r="B54" s="95"/>
+    <row r="54" spans="2:4" ht="30">
+      <c r="B54" s="81"/>
       <c r="C54" s="11" t="s">
         <v>18</v>
       </c>
@@ -4332,8 +4326,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="43.5">
-      <c r="B55" s="95"/>
+    <row r="55" spans="2:4" ht="45">
+      <c r="B55" s="81"/>
       <c r="C55" s="11" t="s">
         <v>20</v>
       </c>
@@ -4341,8 +4335,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="72.5">
-      <c r="B56" s="95"/>
+    <row r="56" spans="2:4" ht="75">
+      <c r="B56" s="81"/>
       <c r="C56" s="11" t="s">
         <v>57</v>
       </c>
@@ -4350,8 +4344,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="29">
-      <c r="B57" s="95"/>
+    <row r="57" spans="2:4" ht="30">
+      <c r="B57" s="81"/>
       <c r="C57" s="11" t="s">
         <v>17</v>
       </c>
@@ -4359,8 +4353,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="87">
-      <c r="B58" s="95"/>
+    <row r="58" spans="2:4" ht="90">
+      <c r="B58" s="81"/>
       <c r="C58" s="11" t="s">
         <v>60</v>
       </c>
@@ -4368,8 +4362,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="43.5">
-      <c r="B59" s="95"/>
+    <row r="59" spans="2:4" ht="45">
+      <c r="B59" s="81"/>
       <c r="C59" s="11" t="s">
         <v>19</v>
       </c>
@@ -4377,8 +4371,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="43.5">
-      <c r="B60" s="95"/>
+    <row r="60" spans="2:4" ht="45">
+      <c r="B60" s="81"/>
       <c r="C60" s="11" t="s">
         <v>63</v>
       </c>
@@ -4386,7 +4380,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="29">
+    <row r="61" spans="2:4" ht="30">
       <c r="B61" s="35" t="s">
         <v>21</v>
       </c>
@@ -4395,7 +4389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="43.5">
+    <row r="62" spans="2:4" ht="45">
       <c r="B62" s="14" t="s">
         <v>70</v>
       </c>
@@ -4404,107 +4398,94 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="2:4" ht="14.5">
+    <row r="63" spans="2:4" ht="15">
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
     </row>
-    <row r="64" spans="2:4" ht="14.5">
-      <c r="B64" s="96" t="s">
+    <row r="64" spans="2:4" ht="15">
+      <c r="B64" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="97"/>
-      <c r="D64" s="98"/>
-    </row>
-    <row r="65" spans="2:4" ht="14.5">
-      <c r="B65" s="85" t="s">
+      <c r="C64" s="83"/>
+      <c r="D64" s="84"/>
+    </row>
+    <row r="65" spans="2:4" ht="15">
+      <c r="B65" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="86"/>
-      <c r="D65" s="87"/>
-    </row>
-    <row r="66" spans="2:4" ht="14.5">
-      <c r="B66" s="85" t="s">
+      <c r="C65" s="71"/>
+      <c r="D65" s="72"/>
+    </row>
+    <row r="66" spans="2:4" ht="15">
+      <c r="B66" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C66" s="86"/>
-      <c r="D66" s="87"/>
-    </row>
-    <row r="67" spans="2:4" ht="14.5">
-      <c r="B67" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="C67" s="86"/>
-      <c r="D67" s="87"/>
-    </row>
-    <row r="68" spans="2:4" ht="14.5">
-      <c r="B68" s="85" t="s">
+      <c r="C66" s="71"/>
+      <c r="D66" s="72"/>
+    </row>
+    <row r="67" spans="2:4" ht="15">
+      <c r="B67" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="71"/>
+      <c r="D67" s="72"/>
+    </row>
+    <row r="68" spans="2:4" ht="15">
+      <c r="B68" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="86"/>
-      <c r="D68" s="87"/>
-    </row>
-    <row r="69" spans="2:4" ht="14.5">
-      <c r="B69" s="85" t="s">
+      <c r="C68" s="71"/>
+      <c r="D68" s="72"/>
+    </row>
+    <row r="69" spans="2:4" ht="15">
+      <c r="B69" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="86"/>
-      <c r="D69" s="87"/>
-    </row>
-    <row r="70" spans="2:4" ht="14.5">
-      <c r="B70" s="79" t="s">
+      <c r="C69" s="71"/>
+      <c r="D69" s="72"/>
+    </row>
+    <row r="70" spans="2:4" ht="15">
+      <c r="B70" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="80"/>
-      <c r="D70" s="81"/>
-    </row>
-    <row r="71" spans="2:4" ht="14.5">
-      <c r="B71" s="79" t="s">
+      <c r="C70" s="97"/>
+      <c r="D70" s="98"/>
+    </row>
+    <row r="71" spans="2:4" ht="15">
+      <c r="B71" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="80"/>
-      <c r="D71" s="81"/>
-    </row>
-    <row r="72" spans="2:4" ht="14.5">
-      <c r="B72" s="79" t="s">
+      <c r="C71" s="97"/>
+      <c r="D71" s="98"/>
+    </row>
+    <row r="72" spans="2:4" ht="15">
+      <c r="B72" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="80"/>
-      <c r="D72" s="81"/>
-    </row>
-    <row r="73" spans="2:4" ht="14.5">
-      <c r="B73" s="82" t="s">
+      <c r="C72" s="97"/>
+      <c r="D72" s="98"/>
+    </row>
+    <row r="73" spans="2:4" ht="15">
+      <c r="B73" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="84"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="69"/>
     </row>
     <row r="74" spans="2:4">
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="70" t="s">
+      <c r="B75" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="88"/>
     </row>
     <row r="76" spans="2:4" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
@@ -4521,245 +4502,99 @@
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
   </mergeCells>
-  <conditionalFormatting sqref="C43:C47">
-    <cfRule type="containsText" dxfId="77" priority="49" operator="containsText" text="NOT NEEDED">
-      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C43)))</formula>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="containsText" dxfId="22" priority="54" operator="containsText" text="NOT NEEDED">
+      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="55" operator="containsText" text="OPTIONAL">
+      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="56" operator="containsText" text="REQUIRED">
+      <formula>NOT(ISERROR(SEARCH("REQUIRED",C38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:C39 C53:C60">
+    <cfRule type="containsText" dxfId="19" priority="40" operator="containsText" text="CONDITIONAL">
+      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:C47">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="NOT NEEDED">
+      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="OPTIONAL">
+      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="REQUIRED">
+      <formula>NOT(ISERROR(SEARCH("REQUIRED",C39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C42">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="CONDITIONAL">
+      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="containsText" dxfId="76" priority="50" operator="containsText" text="OPTIONAL">
-      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C47">
-    <cfRule type="containsText" dxfId="75" priority="51" operator="containsText" text="REQUIRED">
-      <formula>NOT(ISERROR(SEARCH("REQUIRED",C43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C47">
-    <cfRule type="containsText" dxfId="74" priority="52" operator="containsText" text="CONDITIONAL">
+    <cfRule type="containsText" dxfId="14" priority="52" operator="containsText" text="CONDITIONAL">
       <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C43)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="containsText" dxfId="73" priority="53" operator="containsText" text="CONDITIONAL">
-      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C38)))</formula>
+  <conditionalFormatting sqref="C48:C49">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="NOT NEEDED">
+      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="OPTIONAL">
+      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="REQUIRED">
+      <formula>NOT(ISERROR(SEARCH("REQUIRED",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="containsText" dxfId="72" priority="54" operator="containsText" text="NOT NEEDED">
-      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C38)))</formula>
+  <conditionalFormatting sqref="C48:C52">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="CONDITIONAL">
+      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="containsText" dxfId="71" priority="55" operator="containsText" text="OPTIONAL">
-      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="containsText" dxfId="70" priority="56" operator="containsText" text="REQUIRED">
-      <formula>NOT(ISERROR(SEARCH("REQUIRED",C38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="containsText" dxfId="69" priority="17" operator="containsText" text="CONDITIONAL">
-      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="containsText" dxfId="68" priority="18" operator="containsText" text="NOT NEEDED">
-      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="containsText" dxfId="67" priority="19" operator="containsText" text="OPTIONAL">
-      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="containsText" dxfId="66" priority="20" operator="containsText" text="REQUIRED">
-      <formula>NOT(ISERROR(SEARCH("REQUIRED",C42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="containsText" dxfId="65" priority="21" operator="containsText" text="CONDITIONAL">
-      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="containsText" dxfId="64" priority="22" operator="containsText" text="NOT NEEDED">
-      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="containsText" dxfId="63" priority="23" operator="containsText" text="OPTIONAL">
-      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C41">
-    <cfRule type="containsText" dxfId="62" priority="24" operator="containsText" text="REQUIRED">
-      <formula>NOT(ISERROR(SEARCH("REQUIRED",C40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="containsText" dxfId="61" priority="25" operator="containsText" text="CONDITIONAL">
-      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="containsText" dxfId="60" priority="26" operator="containsText" text="NOT NEEDED">
+  <conditionalFormatting sqref="C50:C61">
+    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="NOT NEEDED">
       <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C50)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="containsText" dxfId="59" priority="27" operator="containsText" text="OPTIONAL">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="OPTIONAL">
       <formula>NOT(ISERROR(SEARCH("OPTIONAL",C50)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="containsText" dxfId="58" priority="28" operator="containsText" text="REQUIRED">
+    <cfRule type="containsText" dxfId="7" priority="16" operator="containsText" text="REQUIRED">
       <formula>NOT(ISERROR(SEARCH("REQUIRED",C50)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="containsText" dxfId="57" priority="29" operator="containsText" text="CONDITIONAL">
-      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="containsText" dxfId="56" priority="30" operator="containsText" text="NOT NEEDED">
-      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="containsText" dxfId="55" priority="31" operator="containsText" text="OPTIONAL">
-      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="containsText" dxfId="54" priority="32" operator="containsText" text="REQUIRED">
-      <formula>NOT(ISERROR(SEARCH("REQUIRED",C51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="containsText" dxfId="53" priority="33" operator="containsText" text="CONDITIONAL">
-      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="containsText" dxfId="52" priority="34" operator="containsText" text="NOT NEEDED">
-      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="containsText" dxfId="51" priority="35" operator="containsText" text="OPTIONAL">
-      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="containsText" dxfId="50" priority="36" operator="containsText" text="REQUIRED">
-      <formula>NOT(ISERROR(SEARCH("REQUIRED",C52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:C60 C39">
-    <cfRule type="containsText" dxfId="49" priority="37" operator="containsText" text="NOT NEEDED">
-      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:C60 C39">
-    <cfRule type="containsText" dxfId="48" priority="38" operator="containsText" text="OPTIONAL">
-      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:C60 C39">
-    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="REQUIRED">
-      <formula>NOT(ISERROR(SEARCH("REQUIRED",C39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:C60 C39">
-    <cfRule type="containsText" dxfId="46" priority="40" operator="containsText" text="CONDITIONAL">
-      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C39)))</formula>
+  <conditionalFormatting sqref="C61:C62">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="CONDITIONAL">
+      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="NOT NEEDED">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="NOT NEEDED">
       <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C62)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="containsText" dxfId="44" priority="10" operator="containsText" text="OPTIONAL">
+    <cfRule type="containsText" dxfId="4" priority="10" operator="containsText" text="OPTIONAL">
       <formula>NOT(ISERROR(SEARCH("OPTIONAL",C62)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="containsText" dxfId="43" priority="11" operator="containsText" text="REQUIRED">
+    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="REQUIRED">
       <formula>NOT(ISERROR(SEARCH("REQUIRED",C62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="containsText" dxfId="42" priority="12" operator="containsText" text="CONDITIONAL">
-      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="containsText" dxfId="41" priority="13" operator="containsText" text="CONDITIONAL">
-      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="containsText" dxfId="40" priority="14" operator="containsText" text="NOT NEEDED">
-      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="containsText" dxfId="39" priority="15" operator="containsText" text="OPTIONAL">
-      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="containsText" dxfId="38" priority="16" operator="containsText" text="REQUIRED">
-      <formula>NOT(ISERROR(SEARCH("REQUIRED",C61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="CONDITIONAL">
-      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="NOT NEEDED">
-      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="OPTIONAL">
-      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="REQUIRED">
-      <formula>NOT(ISERROR(SEARCH("REQUIRED",C49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="CONDITIONAL">
-      <formula>NOT(ISERROR(SEARCH("CONDITIONAL",C48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="NOT NEEDED">
-      <formula>NOT(ISERROR(SEARCH("NOT NEEDED",C48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="OPTIONAL">
-      <formula>NOT(ISERROR(SEARCH("OPTIONAL",C48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="30" priority="8" operator="containsText" text="REQUIRED">
-      <formula>NOT(ISERROR(SEARCH("REQUIRED",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -4768,8 +4603,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <tableParts count="12">
-    <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
@@ -4781,6 +4616,7 @@
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
     <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4791,19 +4627,19 @@
   <sheetViews>
     <sheetView zoomScale="109" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" customWidth="1"/>
-    <col min="6" max="6" width="25.26953125" customWidth="1"/>
-    <col min="7" max="7" width="21.1796875" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.7265625" customWidth="1"/>
-    <col min="11" max="22" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="22" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1">
@@ -4830,7 +4666,7 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="1:10" ht="26">
+    <row r="3" spans="1:10" ht="24">
       <c r="A3" s="17" t="s">
         <v>30</v>
       </c>
@@ -4838,7 +4674,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>32</v>
@@ -25782,6 +25618,7 @@
     <row r="1002" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="1003" spans="1:10" ht="12.75" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E1003" xr:uid="{8920AA17-CFE0-0645-8CAF-1D111975F53F}">
       <formula1>"Y"</formula1>
@@ -25825,19 +25662,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="6" width="30.6328125" customWidth="1"/>
-    <col min="7" max="26" width="10.1796875" customWidth="1"/>
+    <col min="1" max="6" width="30.5703125" customWidth="1"/>
+    <col min="7" max="26" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="13" thickBot="1"/>
-    <row r="3" spans="1:26" ht="26.5" thickBot="1">
+    <row r="2" spans="1:26" ht="12.75" thickBot="1"/>
+    <row r="3" spans="1:26" ht="24.75" thickBot="1">
       <c r="A3" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>31</v>
@@ -56823,13 +56660,9 @@
       <c r="Z1003" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4:F999">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(NOT(ISBLANK(E4)),$C4="")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D999">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <phoneticPr fontId="20" type="noConversion"/>
+  <conditionalFormatting sqref="D4:F999">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(NOT(ISBLANK(D4)),$C4="")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56844,9 +56677,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="6" width="30.6328125" customWidth="1"/>
+    <col min="1" max="6" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -56857,7 +56690,7 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
     </row>
-    <row r="2" spans="1:6" ht="13" thickBot="1">
+    <row r="2" spans="1:6" ht="12.75" thickBot="1">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -56865,21 +56698,21 @@
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:6" ht="26.5" thickBot="1">
+    <row r="3" spans="1:6" ht="24.75" thickBot="1">
       <c r="A3" s="43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="E3" s="46" t="s">
         <v>98</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>99</v>
       </c>
       <c r="F3" s="47" t="s">
         <v>40</v>
@@ -70830,11 +70663,22 @@
       <c r="F999" s="37"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="3ecc50c5-b82d-4303-86a4-250dc2a74cd6" xsi:nil="true"/>
@@ -70843,15 +70687,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -71052,20 +70887,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CD86813-E17A-4CCA-BC98-8479310CE270}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DB6CD8D-5C6B-45F6-A3CC-D7D980E7EA53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="3ecc50c5-b82d-4303-86a4-250dc2a74cd6"/>
     <ds:schemaRef ds:uri="0d806743-22be-4e8d-b321-48fba6a17804"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CD86813-E17A-4CCA-BC98-8479310CE270}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
